--- a/models/Consumer discretionary/21/report_rand_for.xlsx
+++ b/models/Consumer discretionary/21/report_rand_for.xlsx
@@ -32,7 +32,7 @@
     <t>min_samples_split</t>
   </si>
   <si>
-    <t>entropy</t>
+    <t>gini</t>
   </si>
   <si>
     <t>Bear</t>
@@ -519,31 +519,31 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>0.04444444444444445</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1</v>
+        <v>0.02409638554216867</v>
       </c>
       <c r="D2">
-        <v>0.1854304635761589</v>
+        <v>0.1587301587301587</v>
       </c>
       <c r="E2">
-        <v>0.1052631578947368</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="F2">
-        <v>0.5075757575757576</v>
+        <v>0.05555555555555556</v>
       </c>
       <c r="G2">
-        <v>0.11</v>
+        <v>0.5738831615120276</v>
       </c>
       <c r="H2">
-        <v>0.3081180811808118</v>
+        <v>0.3558052434456929</v>
       </c>
       <c r="I2">
-        <v>0.175452303915183</v>
+        <v>0.1631553213344295</v>
       </c>
       <c r="J2">
-        <v>0.27788763429635</v>
+        <v>0.2919068358807159</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -551,31 +551,31 @@
         <v>16</v>
       </c>
       <c r="B3">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0.25</v>
       </c>
       <c r="D3">
-        <v>0.4666666666666667</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="E3">
-        <v>0.09259259259259259</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="F3">
-        <v>0.435064935064935</v>
+        <v>0.04273504273504274</v>
       </c>
       <c r="G3">
-        <v>0.08088235294117647</v>
+        <v>0.4562841530054645</v>
       </c>
       <c r="H3">
-        <v>0.3081180811808118</v>
+        <v>0.3558052434456929</v>
       </c>
       <c r="I3">
-        <v>0.2542010912108951</v>
+        <v>0.2480249384205193</v>
       </c>
       <c r="J3">
-        <v>0.3342319543643616</v>
+        <v>0.3610969507453367</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -583,31 +583,31 @@
         <v>17</v>
       </c>
       <c r="B4">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0625</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="D4">
-        <v>0.115702479338843</v>
+        <v>0.125</v>
       </c>
       <c r="E4">
-        <v>0.1219512195121951</v>
+        <v>0.09917355371900827</v>
       </c>
       <c r="F4">
-        <v>0.6090909090909091</v>
+        <v>0.07936507936507936</v>
       </c>
       <c r="G4">
-        <v>0.171875</v>
+        <v>0.7731481481481481</v>
       </c>
       <c r="H4">
-        <v>0.3081180811808118</v>
+        <v>0.3558052434456929</v>
       </c>
       <c r="I4">
-        <v>0.1843532679903245</v>
+        <v>0.1815575015133895</v>
       </c>
       <c r="J4">
-        <v>0.3081180811808118</v>
+        <v>0.3558052434456929</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -615,31 +615,31 @@
         <v>18</v>
       </c>
       <c r="B5">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="C5">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="D5">
+        <v>40</v>
+      </c>
+      <c r="E5">
         <v>121</v>
       </c>
-      <c r="E5">
-        <v>41</v>
-      </c>
       <c r="F5">
-        <v>220</v>
+        <v>63</v>
       </c>
       <c r="G5">
-        <v>64</v>
+        <v>216</v>
       </c>
       <c r="H5">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="I5">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="J5">
-        <v>542</v>
+        <v>534</v>
       </c>
     </row>
   </sheetData>
